--- a/dev_file/blog_db_1.0.0.xlsx
+++ b/dev_file/blog_db_1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15315" windowHeight="7590" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="15315" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="basic_user" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
   <si>
     <t>字段名</t>
   </si>
@@ -67,15 +67,6 @@
   </si>
   <si>
     <t>登录密码</t>
-  </si>
-  <si>
-    <t>user_authority_level</t>
-  </si>
-  <si>
-    <t>用户权限级别   0   超级管理员
-          10  管理员
-            20  普通用户
-        30  游客</t>
   </si>
   <si>
     <t>decription</t>
@@ -230,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -251,7 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,7 +256,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,35 +332,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -316,15 +339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,41 +363,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +377,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -409,19 +400,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,25 +490,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,19 +526,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,109 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,17 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,17 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,137 +711,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,20 +851,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1223,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1236,207 +1215,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1462,115 +1427,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1600,27 +1565,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -1629,94 +1594,94 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
+      <c r="A3" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
+      <c r="A4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1742,103 +1707,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>46</v>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>45</v>
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1886,70 +1851,70 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1959,17 +1924,17 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1977,17 +1942,17 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="5">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1997,17 +1962,17 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2015,16 +1980,16 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2037,7 +2002,7 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2062,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -2072,116 +2037,116 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="4">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>50</v>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="4">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="4">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2190,12 +2155,12 @@
     </row>
     <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="5">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2205,17 +2170,17 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2223,17 +2188,17 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="5">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2243,17 +2208,17 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2261,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
